--- a/数据整理/stocks/A股/上证主板/601127-赛力斯.xlsx
+++ b/数据整理/stocks/A股/上证主板/601127-赛力斯.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>17</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>50.42</v>
       </c>
     </row>
@@ -498,6 +515,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>129.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8750</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012967</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发行业严选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>109.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2996</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.8068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>96.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.4608</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.9018</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳新能源精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.9050</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2510</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8083</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5966</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012968</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发行业严选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5947</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>38.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
